--- a/RSF_Report_2025/R_calc_RSF_2025/Data/TuMyt_2009_2010_for_SDM.xlsx
+++ b/RSF_Report_2025/R_calc_RSF_2025/Data/TuMyt_2009_2010_for_SDM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Article\Articles_in_progress\RSF_Report_2025\R_calc_RSF_2025\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61412F5-ABB5-4D23-ADCC-3BD77B096499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,9 +29,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -37,9 +44,6 @@
     <t>Sample_ID</t>
   </si>
   <si>
-    <t>Sie_ID</t>
-  </si>
-  <si>
     <t>Sample_position</t>
   </si>
   <si>
@@ -455,26 +459,25 @@
   </si>
   <si>
     <t>Полярный</t>
+  </si>
+  <si>
+    <t>Site_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="181" formatCode="#\ ##0"/>
-    <numFmt numFmtId="182" formatCode="#.00000\ ##0"/>
-    <numFmt numFmtId="183" formatCode="#.\ #0"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
-    <numFmt numFmtId="185" formatCode="#.\ ##0"/>
-    <numFmt numFmtId="186" formatCode="#.\ 0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="7">
+    <numFmt numFmtId="168" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="169" formatCode="#\ ##0"/>
+    <numFmt numFmtId="170" formatCode="#.00000\ ##0"/>
+    <numFmt numFmtId="171" formatCode="#.\ #0"/>
+    <numFmt numFmtId="172" formatCode="0.0_ "/>
+    <numFmt numFmtId="173" formatCode="#.\ ##0"/>
+    <numFmt numFmtId="174" formatCode="#.\ 0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,152 +511,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,194 +525,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -861,251 +534,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1114,10 +545,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,16 +587,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1190,90 +621,159 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
-    <cellStyle name="Обычный 3" xfId="49"/>
+    <cellStyle name="Обычный 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1284,7 +784,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1312,154 +812,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1717,144 +1103,144 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="14.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1111111111111" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.6666666666667" style="4"/>
-    <col min="6" max="6" width="13.5555555555556" style="4" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="4"/>
+    <col min="6" max="6" width="13.5703125" style="4" customWidth="1"/>
     <col min="7" max="14" width="14" style="4" customWidth="1"/>
-    <col min="15" max="16" width="8.88888888888889" style="4"/>
-    <col min="17" max="17" width="12.2222222222222" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.88888888888889" style="4"/>
-    <col min="19" max="19" width="13.7777777777778" style="4" customWidth="1"/>
-    <col min="20" max="24" width="8.88888888888889" style="4"/>
-    <col min="25" max="25" width="12.8888888888889" style="4"/>
-    <col min="26" max="16384" width="8.88888888888889" style="4"/>
+    <col min="15" max="16" width="8.85546875" style="4"/>
+    <col min="17" max="17" width="12.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="4"/>
+    <col min="19" max="19" width="13.7109375" style="4" customWidth="1"/>
+    <col min="20" max="24" width="8.85546875" style="4"/>
+    <col min="25" max="25" width="12.85546875" style="4"/>
+    <col min="26" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:27">
+    <row r="1" spans="1:27" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AA1" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="10">
-        <v>69.186008</v>
+        <v>69.186008000000001</v>
       </c>
       <c r="E2" s="10">
-        <v>33.630992</v>
+        <v>33.630991999999999</v>
       </c>
       <c r="F2" s="10">
-        <v>69.186008</v>
+        <v>69.186008000000001</v>
       </c>
       <c r="G2" s="10">
-        <v>33.630992</v>
+        <v>33.630991999999999</v>
       </c>
       <c r="H2" s="11">
-        <v>0.473764956273301</v>
+        <v>0.47376495627330101</v>
       </c>
       <c r="I2" s="11">
-        <v>0.473764956273301</v>
+        <v>0.47376495627330101</v>
       </c>
       <c r="J2" s="15">
         <v>19</v>
@@ -1866,19 +1252,19 @@
         <v>22</v>
       </c>
       <c r="M2" s="16">
-        <v>5.37745584439991</v>
+        <v>5.3774558443999103</v>
       </c>
       <c r="N2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="P2" s="10">
         <v>2009</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="10">
         <v>2</v>
@@ -1887,13 +1273,13 @@
         <v>250</v>
       </c>
       <c r="T2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W2" s="10">
         <v>0</v>
@@ -1908,39 +1294,39 @@
         <v>0.81</v>
       </c>
       <c r="AA2" s="24">
-        <v>0.592183685</v>
+        <v>0.59218368499999996</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10">
-        <v>69.185968</v>
+        <v>69.185968000000003</v>
       </c>
       <c r="E3" s="10">
-        <v>33.630782</v>
+        <v>33.630782000000004</v>
       </c>
       <c r="F3" s="10">
-        <v>69.185968</v>
+        <v>69.185968000000003</v>
       </c>
       <c r="G3" s="10">
-        <v>33.630782</v>
+        <v>33.630782000000004</v>
       </c>
       <c r="H3" s="11">
-        <v>0.475650473096954</v>
+        <v>0.47565047309695402</v>
       </c>
       <c r="I3" s="11">
-        <v>0.475650473096954</v>
+        <v>0.47565047309695402</v>
       </c>
       <c r="J3" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K3" s="15">
         <v>10.6</v>
@@ -1949,19 +1335,19 @@
         <v>22</v>
       </c>
       <c r="M3" s="16">
-        <v>5.36964507578786</v>
+        <v>5.3696450757878598</v>
       </c>
       <c r="N3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="P3" s="10">
         <v>2009</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="10">
         <v>1.5</v>
@@ -1970,13 +1356,13 @@
         <v>250</v>
       </c>
       <c r="T3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W3" s="10">
         <v>0</v>
@@ -1991,39 +1377,39 @@
         <v>0.81</v>
       </c>
       <c r="AA3" s="24">
-        <v>0.592183685</v>
+        <v>0.59218368499999996</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10">
-        <v>69.185926</v>
+        <v>69.185925999999995</v>
       </c>
       <c r="E4" s="10">
-        <v>33.630498</v>
+        <v>33.630498000000003</v>
       </c>
       <c r="F4" s="10">
-        <v>69.185926</v>
+        <v>69.185925999999995</v>
       </c>
       <c r="G4" s="10">
-        <v>33.630498</v>
+        <v>33.630498000000003</v>
       </c>
       <c r="H4" s="11">
-        <v>0.478451735096918</v>
+        <v>0.47845173509691802</v>
       </c>
       <c r="I4" s="11">
-        <v>0.478451735096918</v>
+        <v>0.47845173509691802</v>
       </c>
       <c r="J4" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K4" s="15">
         <v>6.6</v>
@@ -2032,19 +1418,19 @@
         <v>22</v>
       </c>
       <c r="M4" s="16">
-        <v>5.35895326900239</v>
+        <v>5.3589532690023898</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="P4" s="10">
         <v>2009</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="10">
         <v>1</v>
@@ -2053,13 +1439,13 @@
         <v>250</v>
       </c>
       <c r="T4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W4" s="10">
         <v>0</v>
@@ -2074,39 +1460,39 @@
         <v>0.571428571</v>
       </c>
       <c r="AA4" s="24">
-        <v>0.397884934</v>
+        <v>0.39788493400000002</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="10">
-        <v>69.185832</v>
+        <v>69.185832000000005</v>
       </c>
       <c r="E5" s="10">
-        <v>33.629765</v>
+        <v>33.629764999999999</v>
       </c>
       <c r="F5" s="10">
-        <v>69.185832</v>
+        <v>69.185832000000005</v>
       </c>
       <c r="G5" s="10">
-        <v>33.629765</v>
+        <v>33.629764999999999</v>
       </c>
       <c r="H5" s="11">
-        <v>0.485981473277983</v>
+        <v>0.48598147327798302</v>
       </c>
       <c r="I5" s="11">
-        <v>0.485981473277983</v>
+        <v>0.48598147327798302</v>
       </c>
       <c r="J5" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K5" s="15">
         <v>2.6</v>
@@ -2115,19 +1501,19 @@
         <v>22</v>
       </c>
       <c r="M5" s="16">
-        <v>5.33121969203691</v>
+        <v>5.3312196920369104</v>
       </c>
       <c r="N5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="P5" s="10">
         <v>2009</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R5" s="10">
         <v>0.5</v>
@@ -2136,13 +1522,13 @@
         <v>250</v>
       </c>
       <c r="T5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W5" s="10">
         <v>0</v>
@@ -2154,42 +1540,42 @@
         <v>2820</v>
       </c>
       <c r="Z5" s="24">
-        <v>0.488372093</v>
+        <v>0.48837209300000001</v>
       </c>
       <c r="AA5" s="24">
-        <v>0.334395307</v>
+        <v>0.33439530699999997</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="10">
-        <v>69.185808</v>
+        <v>69.185807999999994</v>
       </c>
       <c r="E6" s="10">
-        <v>33.629323</v>
+        <v>33.629322999999999</v>
       </c>
       <c r="F6" s="10">
-        <v>69.185808</v>
+        <v>69.185807999999994</v>
       </c>
       <c r="G6" s="10">
-        <v>33.629323</v>
+        <v>33.629322999999999</v>
       </c>
       <c r="H6" s="11">
-        <v>0.390528158864358</v>
+        <v>0.39052815886435799</v>
       </c>
       <c r="I6" s="11">
-        <v>0.390528158864358</v>
+        <v>0.39052815886435799</v>
       </c>
       <c r="J6" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K6" s="15">
         <v>2.6</v>
@@ -2198,19 +1584,19 @@
         <v>22</v>
       </c>
       <c r="M6" s="16">
-        <v>5.31412994952893</v>
+        <v>5.3141299495289296</v>
       </c>
       <c r="N6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="P6" s="10">
         <v>2009</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6" s="10">
         <v>-0.5</v>
@@ -2219,13 +1605,13 @@
         <v>250</v>
       </c>
       <c r="T6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W6" s="10">
         <v>0</v>
@@ -2237,7 +1623,7 @@
         <v>6037.3</v>
       </c>
       <c r="Z6" s="24">
-        <v>0.347107438</v>
+        <v>0.34710743799999999</v>
       </c>
       <c r="AA6" s="24">
         <v>0.239659817</v>
@@ -2245,34 +1631,34 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="10">
-        <v>69.181948</v>
+        <v>69.181948000000006</v>
       </c>
       <c r="E7" s="10">
         <v>33.626621</v>
       </c>
       <c r="F7" s="10">
-        <v>69.181948</v>
+        <v>69.181948000000006</v>
       </c>
       <c r="G7" s="10">
         <v>33.626621</v>
       </c>
       <c r="H7" s="11">
-        <v>0.358507791689224</v>
+        <v>0.35850779168922398</v>
       </c>
       <c r="I7" s="11">
-        <v>0.358507791689224</v>
+        <v>0.35850779168922398</v>
       </c>
       <c r="J7" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K7" s="15">
         <v>15.5</v>
@@ -2281,19 +1667,19 @@
         <v>22</v>
       </c>
       <c r="M7" s="16">
-        <v>5.27120118652315</v>
+        <v>5.2712011865231503</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P7" s="10">
         <v>2009</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="10">
         <v>2</v>
@@ -2302,13 +1688,13 @@
         <v>420</v>
       </c>
       <c r="T7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W7" s="10">
         <v>0</v>
@@ -2317,45 +1703,45 @@
         <v>3</v>
       </c>
       <c r="Y7" s="24">
-        <v>46.66666667</v>
+        <v>46.666666669999998</v>
       </c>
       <c r="Z7" s="24">
-        <v>0.476190476</v>
+        <v>0.47619047599999997</v>
       </c>
       <c r="AA7" s="24">
-        <v>0.325508296</v>
+        <v>0.32550829599999997</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10">
-        <v>69.184817</v>
+        <v>69.184816999999995</v>
       </c>
       <c r="E8" s="10">
-        <v>33.621227</v>
+        <v>33.621226999999998</v>
       </c>
       <c r="F8" s="10">
-        <v>69.184817</v>
+        <v>69.184816999999995</v>
       </c>
       <c r="G8" s="10">
-        <v>33.621227</v>
+        <v>33.621226999999998</v>
       </c>
       <c r="H8" s="11">
-        <v>0.461053565005614</v>
+        <v>0.46105356500561401</v>
       </c>
       <c r="I8" s="11">
-        <v>0.461053565005614</v>
+        <v>0.46105356500561401</v>
       </c>
       <c r="J8" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K8" s="15">
         <v>11.3</v>
@@ -2364,19 +1750,19 @@
         <v>22</v>
       </c>
       <c r="M8" s="16">
-        <v>5.00959643191706</v>
+        <v>5.0095964319170596</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="10">
         <v>2009</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="10">
         <v>1.5</v>
@@ -2385,13 +1771,13 @@
         <v>420</v>
       </c>
       <c r="T8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W8" s="10">
         <v>0</v>
@@ -2406,39 +1792,39 @@
         <v>0.45</v>
       </c>
       <c r="AA8" s="24">
-        <v>0.306826051</v>
+        <v>0.30682605099999999</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10">
-        <v>69.185263</v>
+        <v>69.185263000000006</v>
       </c>
       <c r="E9" s="10">
-        <v>33.624705</v>
+        <v>33.624704999999999</v>
       </c>
       <c r="F9" s="10">
-        <v>69.185263</v>
+        <v>69.185263000000006</v>
       </c>
       <c r="G9" s="10">
-        <v>33.624705</v>
+        <v>33.624704999999999</v>
       </c>
       <c r="H9" s="11">
-        <v>0.437153219908005</v>
+        <v>0.43715321990800499</v>
       </c>
       <c r="I9" s="11">
-        <v>0.437153219908005</v>
+        <v>0.43715321990800499</v>
       </c>
       <c r="J9" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K9" s="15">
         <v>7.5</v>
@@ -2447,19 +1833,19 @@
         <v>22</v>
       </c>
       <c r="M9" s="16">
-        <v>5.13963715175461</v>
+        <v>5.1396371517546102</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P9" s="10">
         <v>2009</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="10">
         <v>1</v>
@@ -2468,13 +1854,13 @@
         <v>420</v>
       </c>
       <c r="T9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="V9" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W9" s="10">
         <v>0</v>
@@ -2489,39 +1875,39 @@
         <v>0.45</v>
       </c>
       <c r="AA9" s="24">
-        <v>0.306826051</v>
+        <v>0.30682605099999999</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10">
-        <v>69.185351</v>
+        <v>69.185350999999997</v>
       </c>
       <c r="E10" s="10">
-        <v>33.625488</v>
+        <v>33.625487999999997</v>
       </c>
       <c r="F10" s="10">
-        <v>69.185351</v>
+        <v>69.185350999999997</v>
       </c>
       <c r="G10" s="10">
-        <v>33.625488</v>
+        <v>33.625487999999997</v>
       </c>
       <c r="H10" s="11">
-        <v>0.432087949216916</v>
+        <v>0.43208794921691601</v>
       </c>
       <c r="I10" s="11">
-        <v>0.432087949216916</v>
+        <v>0.43208794921691601</v>
       </c>
       <c r="J10" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K10" s="15">
         <v>3.7</v>
@@ -2530,19 +1916,19 @@
         <v>22</v>
       </c>
       <c r="M10" s="16">
-        <v>5.16919266460931</v>
+        <v>5.1691926646093096</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P10" s="10">
         <v>2009</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R10" s="10">
         <v>0.5</v>
@@ -2551,13 +1937,13 @@
         <v>420</v>
       </c>
       <c r="T10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W10" s="10">
         <v>0</v>
@@ -2569,42 +1955,42 @@
         <v>2870</v>
       </c>
       <c r="Z10" s="24">
-        <v>0.23943662</v>
+        <v>0.23943661999999999</v>
       </c>
       <c r="AA10" s="24">
-        <v>0.180959667</v>
+        <v>0.18095966699999999</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10">
-        <v>69.185572</v>
+        <v>69.185571999999993</v>
       </c>
       <c r="E11" s="10">
-        <v>33.628247</v>
+        <v>33.628247000000002</v>
       </c>
       <c r="F11" s="10">
-        <v>69.185572</v>
+        <v>69.185571999999993</v>
       </c>
       <c r="G11" s="10">
-        <v>33.628247</v>
+        <v>33.628247000000002</v>
       </c>
       <c r="H11" s="11">
-        <v>0.400147219819397</v>
+        <v>0.40014721981939699</v>
       </c>
       <c r="I11" s="11">
-        <v>0.400147219819397</v>
+        <v>0.40014721981939699</v>
       </c>
       <c r="J11" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K11" s="15">
         <v>3.7</v>
@@ -2613,19 +1999,19 @@
         <v>22</v>
       </c>
       <c r="M11" s="16">
-        <v>5.27469094833891</v>
+        <v>5.2746909483389102</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P11" s="10">
         <v>2009</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R11" s="10">
         <v>-0.5</v>
@@ -2634,13 +2020,13 @@
         <v>420</v>
       </c>
       <c r="T11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W11" s="10">
         <v>0</v>
@@ -2652,42 +2038,42 @@
         <v>6357.3</v>
       </c>
       <c r="Z11" s="24">
-        <v>0.054794521</v>
+        <v>5.4794520999999999E-2</v>
       </c>
       <c r="AA11" s="24">
-        <v>0.10724674</v>
+        <v>0.10724673999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10">
-        <v>69.185716</v>
+        <v>69.185715999999999</v>
       </c>
       <c r="E12" s="10">
         <v>33.628574</v>
       </c>
       <c r="F12" s="10">
-        <v>69.185716</v>
+        <v>69.185715999999999</v>
       </c>
       <c r="G12" s="10">
         <v>33.628574</v>
       </c>
       <c r="H12" s="11">
-        <v>0.391435830628047</v>
+        <v>0.39143583062804699</v>
       </c>
       <c r="I12" s="11">
-        <v>0.391435830628047</v>
+        <v>0.39143583062804699</v>
       </c>
       <c r="J12" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K12" s="15">
         <v>3.7</v>
@@ -2699,16 +2085,16 @@
         <v>5.28578867715638</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P12" s="10">
         <v>2009</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R12" s="10">
         <v>-1.5</v>
@@ -2717,13 +2103,13 @@
         <v>420</v>
       </c>
       <c r="T12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W12" s="10">
         <v>0</v>
@@ -2735,33 +2121,33 @@
         <v>6389.3</v>
       </c>
       <c r="Z12" s="24">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AA12" s="24">
-        <v>0.109705774</v>
+        <v>0.10970577400000001</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="10">
-        <v>69.195494</v>
+        <v>69.195493999999997</v>
       </c>
       <c r="E13" s="10">
-        <v>33.602507</v>
+        <v>33.602507000000003</v>
       </c>
       <c r="F13" s="10">
-        <v>69.195494</v>
+        <v>69.195493999999997</v>
       </c>
       <c r="G13" s="10">
-        <v>33.602507</v>
+        <v>33.602507000000003</v>
       </c>
       <c r="H13" s="11">
         <v>1.07439720652222</v>
@@ -2773,25 +2159,25 @@
         <v>21</v>
       </c>
       <c r="K13" s="17">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L13" s="15">
         <v>22</v>
       </c>
       <c r="M13" s="16">
-        <v>4.25756931539784</v>
+        <v>4.2575693153978396</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P13" s="10">
         <v>2009</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R13" s="10">
         <v>2</v>
@@ -2800,13 +2186,13 @@
         <v>1750</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W13" s="10">
         <v>0</v>
@@ -2821,27 +2207,27 @@
         <v>1</v>
       </c>
       <c r="AA13" s="24">
-        <v>0.731058579</v>
+        <v>0.73105857900000004</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="10">
-        <v>69.195478</v>
+        <v>69.195477999999994</v>
       </c>
       <c r="E14" s="10">
         <v>33.602449</v>
       </c>
       <c r="F14" s="10">
-        <v>69.195478</v>
+        <v>69.195477999999994</v>
       </c>
       <c r="G14" s="10">
         <v>33.602449</v>
@@ -2856,25 +2242,25 @@
         <v>21</v>
       </c>
       <c r="K14" s="17">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L14" s="15">
         <v>22</v>
       </c>
       <c r="M14" s="16">
-        <v>4.25507820064882</v>
+        <v>4.2550782006488204</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" s="10">
         <v>2009</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R14" s="10">
         <v>1.5</v>
@@ -2883,13 +2269,13 @@
         <v>1750</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W14" s="10">
         <v>0</v>
@@ -2901,39 +2287,39 @@
         <v>1430</v>
       </c>
       <c r="Z14" s="24">
-        <v>0.754385965</v>
+        <v>0.75438596499999999</v>
       </c>
       <c r="AA14" s="24">
-        <v>0.547227216</v>
+        <v>0.54722721600000002</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="C15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10">
-        <v>69.195463</v>
+        <v>69.195463000000004</v>
       </c>
       <c r="E15" s="10">
-        <v>33.602412</v>
+        <v>33.602412000000001</v>
       </c>
       <c r="F15" s="10">
-        <v>69.195463</v>
+        <v>69.195463000000004</v>
       </c>
       <c r="G15" s="10">
-        <v>33.602412</v>
+        <v>33.602412000000001</v>
       </c>
       <c r="H15" s="11">
-        <v>1.07623670041786</v>
+        <v>1.0762367004178599</v>
       </c>
       <c r="I15" s="11">
-        <v>1.07623670041786</v>
+        <v>1.0762367004178599</v>
       </c>
       <c r="J15" s="17">
         <v>21</v>
@@ -2945,19 +2331,19 @@
         <v>22</v>
       </c>
       <c r="M15" s="16">
-        <v>4.25342435031775</v>
+        <v>4.2534243503177498</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="10">
         <v>2009</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R15" s="10">
         <v>1</v>
@@ -2966,13 +2352,13 @@
         <v>1750</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W15" s="10">
         <v>0</v>
@@ -2984,39 +2370,39 @@
         <v>2820</v>
       </c>
       <c r="Z15" s="24">
-        <v>0.58974359</v>
+        <v>0.58974358999999998</v>
       </c>
       <c r="AA15" s="24">
-        <v>0.412450051</v>
+        <v>0.41245005099999998</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="10">
-        <v>69.195494</v>
+        <v>69.195493999999997</v>
       </c>
       <c r="E16" s="10">
-        <v>33.602462</v>
+        <v>33.602462000000003</v>
       </c>
       <c r="F16" s="10">
-        <v>69.195494</v>
+        <v>69.195493999999997</v>
       </c>
       <c r="G16" s="10">
-        <v>33.602462</v>
+        <v>33.602462000000003</v>
       </c>
       <c r="H16" s="11">
-        <v>1.07516586908577</v>
+        <v>1.0751658690857699</v>
       </c>
       <c r="I16" s="11">
-        <v>1.07516586908577</v>
+        <v>1.0751658690857699</v>
       </c>
       <c r="J16" s="17">
         <v>21</v>
@@ -3028,19 +2414,19 @@
         <v>22</v>
       </c>
       <c r="M16" s="16">
-        <v>4.25580546683216</v>
+        <v>4.2558054668321601</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="10">
         <v>2009</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R16" s="10">
         <v>0.5</v>
@@ -3049,13 +2435,13 @@
         <v>1750</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W16" s="10">
         <v>0</v>
@@ -3067,33 +2453,33 @@
         <v>7220</v>
       </c>
       <c r="Z16" s="24">
-        <v>0.666666667</v>
+        <v>0.66666666699999999</v>
       </c>
       <c r="AA16" s="24">
-        <v>0.475020813</v>
+        <v>0.47502081299999999</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="C17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="10">
-        <v>69.195364</v>
+        <v>69.195363999999998</v>
       </c>
       <c r="E17" s="10">
-        <v>33.602396</v>
+        <v>33.602395999999999</v>
       </c>
       <c r="F17" s="10">
-        <v>69.195364</v>
+        <v>69.195363999999998</v>
       </c>
       <c r="G17" s="10">
-        <v>33.602396</v>
+        <v>33.602395999999999</v>
       </c>
       <c r="H17" s="11">
         <v>1.07720127213717</v>
@@ -3114,16 +2500,16 @@
         <v>4.25146994312305</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" s="10">
         <v>2009</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R17" s="10">
         <v>-0.5</v>
@@ -3132,13 +2518,13 @@
         <v>1750</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W17" s="10">
         <v>1</v>
@@ -3150,33 +2536,33 @@
         <v>608</v>
       </c>
       <c r="Z17" s="24">
-        <v>0.842105263</v>
+        <v>0.84210526299999999</v>
       </c>
       <c r="AA17" s="24">
-        <v>0.61749928</v>
+        <v>0.61749927999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="C18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="10">
-        <v>69.195258</v>
+        <v>69.195257999999995</v>
       </c>
       <c r="E18" s="10">
-        <v>33.602222</v>
+        <v>33.602221999999998</v>
       </c>
       <c r="F18" s="10">
-        <v>69.195258</v>
+        <v>69.195257999999995</v>
       </c>
       <c r="G18" s="10">
-        <v>33.602222</v>
+        <v>33.602221999999998</v>
       </c>
       <c r="H18" s="11">
         <v>1.02186225001428</v>
@@ -3194,19 +2580,19 @@
         <v>22</v>
       </c>
       <c r="M18" s="16">
-        <v>4.2432548828041</v>
+        <v>4.2432548828041003</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P18" s="10">
         <v>2009</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R18" s="10">
         <v>-1.5</v>
@@ -3215,13 +2601,13 @@
         <v>1750</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W18" s="10">
         <v>1</v>
@@ -3233,33 +2619,33 @@
         <v>1562.666667</v>
       </c>
       <c r="Z18" s="24">
-        <v>0.726618705</v>
+        <v>0.72661870500000003</v>
       </c>
       <c r="AA18" s="24">
-        <v>0.524440937</v>
+        <v>0.52444093700000005</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="C19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="10">
-        <v>69.19525</v>
+        <v>69.195250000000001</v>
       </c>
       <c r="E19" s="10">
-        <v>33.602127</v>
+        <v>33.602127000000003</v>
       </c>
       <c r="F19" s="10">
-        <v>69.19525</v>
+        <v>69.195250000000001</v>
       </c>
       <c r="G19" s="10">
-        <v>33.602127</v>
+        <v>33.602127000000003</v>
       </c>
       <c r="H19" s="11">
         <v>1.02293033790546</v>
@@ -3277,19 +2663,19 @@
         <v>22</v>
       </c>
       <c r="M19" s="16">
-        <v>4.23942471505859</v>
+        <v>4.2394247150585898</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" s="10">
         <v>2009</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R19" s="10">
         <v>-3.5</v>
@@ -3298,13 +2684,13 @@
         <v>1750</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W19" s="10">
         <v>1</v>
@@ -3316,39 +2702,39 @@
         <v>192</v>
       </c>
       <c r="Z19" s="24">
-        <v>0.433333333</v>
+        <v>0.43333333299999999</v>
       </c>
       <c r="AA19" s="24">
-        <v>0.295254302</v>
+        <v>0.29525430200000002</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="C20" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="10">
-        <v>69.199189</v>
+        <v>69.199189000000004</v>
       </c>
       <c r="E20" s="10">
-        <v>33.581053</v>
+        <v>33.581052999999997</v>
       </c>
       <c r="F20" s="10">
-        <v>69.199189</v>
+        <v>69.199189000000004</v>
       </c>
       <c r="G20" s="10">
-        <v>33.581053</v>
+        <v>33.581052999999997</v>
       </c>
       <c r="H20" s="11">
-        <v>1.41365873218134</v>
+        <v>1.4136587321813401</v>
       </c>
       <c r="I20" s="11">
-        <v>1.41365873218134</v>
+        <v>1.4136587321813401</v>
       </c>
       <c r="J20" s="17">
         <v>23</v>
@@ -3363,16 +2749,16 @@
         <v>3.50469523927603</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P20" s="10">
         <v>2010</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R20" s="10">
         <v>2</v>
@@ -3381,13 +2767,13 @@
         <v>2700</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W20" s="10">
         <v>0</v>
@@ -3402,36 +2788,36 @@
         <v>0.8</v>
       </c>
       <c r="AA20" s="24">
-        <v>0.584190523</v>
+        <v>0.58419052299999996</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="10">
-        <v>69.199174</v>
+        <v>69.199173999999999</v>
       </c>
       <c r="E21" s="10">
-        <v>33.581037</v>
+        <v>33.581037000000002</v>
       </c>
       <c r="F21" s="10">
-        <v>69.199174</v>
+        <v>69.199173999999999</v>
       </c>
       <c r="G21" s="10">
-        <v>33.581037</v>
+        <v>33.581037000000002</v>
       </c>
       <c r="H21" s="11">
-        <v>1.41583522703421</v>
+        <v>1.4158352270342101</v>
       </c>
       <c r="I21" s="11">
-        <v>1.41583522703421</v>
+        <v>1.4158352270342101</v>
       </c>
       <c r="J21" s="17">
         <v>23</v>
@@ -3443,19 +2829,19 @@
         <v>22</v>
       </c>
       <c r="M21" s="16">
-        <v>3.50364216855666</v>
+        <v>3.5036421685566599</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P21" s="10">
         <v>2010</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R21" s="10">
         <v>1.5</v>
@@ -3464,13 +2850,13 @@
         <v>2700</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W21" s="10">
         <v>0</v>
@@ -3479,66 +2865,66 @@
         <v>4</v>
       </c>
       <c r="Y21" s="10">
-        <v>11233.33333</v>
+        <v>11233.333329999999</v>
       </c>
       <c r="Z21" s="24">
         <v>0.8</v>
       </c>
       <c r="AA21" s="24">
-        <v>0.584190523</v>
+        <v>0.58419052299999996</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="10">
-        <v>69.199147</v>
+        <v>69.199146999999996</v>
       </c>
       <c r="E22" s="10">
         <v>33.581021</v>
       </c>
       <c r="F22" s="10">
-        <v>69.199147</v>
+        <v>69.199146999999996</v>
       </c>
       <c r="G22" s="10">
         <v>33.581021</v>
       </c>
       <c r="H22" s="11">
-        <v>1.86174447818496</v>
+        <v>1.8617444781849599</v>
       </c>
       <c r="I22" s="11">
-        <v>1.86174447818496</v>
+        <v>1.8617444781849599</v>
       </c>
       <c r="J22" s="17">
         <v>23</v>
       </c>
       <c r="K22" s="17">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L22" s="15">
         <v>22</v>
       </c>
       <c r="M22" s="16">
-        <v>3.50223546121422</v>
+        <v>3.5022354612142199</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" s="10">
         <v>2010</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R22" s="10">
         <v>1</v>
@@ -3547,13 +2933,13 @@
         <v>2700</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W22" s="10">
         <v>0</v>
@@ -3562,48 +2948,48 @@
         <v>4</v>
       </c>
       <c r="Y22" s="24">
-        <v>4733.333333</v>
+        <v>4733.3333329999996</v>
       </c>
       <c r="Z22" s="24">
-        <v>0.633333333</v>
+        <v>0.63333333300000005</v>
       </c>
       <c r="AA22" s="24">
-        <v>0.44769209</v>
+        <v>0.44769208999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="10">
-        <v>69.199133</v>
+        <v>69.199133000000003</v>
       </c>
       <c r="E23" s="10">
-        <v>33.581053</v>
+        <v>33.581052999999997</v>
       </c>
       <c r="F23" s="10">
-        <v>69.199133</v>
+        <v>69.199133000000003</v>
       </c>
       <c r="G23" s="10">
-        <v>33.581053</v>
+        <v>33.581052999999997</v>
       </c>
       <c r="H23" s="11">
-        <v>1.86319671617191</v>
+        <v>1.8631967161719101</v>
       </c>
       <c r="I23" s="11">
-        <v>1.86319671617191</v>
+        <v>1.8631967161719101</v>
       </c>
       <c r="J23" s="17">
         <v>23</v>
       </c>
       <c r="K23" s="17">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L23" s="15">
         <v>22</v>
@@ -3612,16 +2998,16 @@
         <v>3.50304127641457</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P23" s="10">
         <v>2010</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R23" s="10">
         <v>0.5</v>
@@ -3630,13 +3016,13 @@
         <v>2700</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W23" s="10">
         <v>0</v>
@@ -3648,63 +3034,63 @@
         <v>19100</v>
       </c>
       <c r="Z23" s="24">
-        <v>0.740740741</v>
+        <v>0.74074074099999998</v>
       </c>
       <c r="AA23" s="24">
-        <v>0.536048456</v>
+        <v>0.53604845599999995</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="C24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="10">
-        <v>69.19912</v>
+        <v>69.199119999999994</v>
       </c>
       <c r="E24" s="10">
-        <v>33.581011</v>
+        <v>33.581010999999997</v>
       </c>
       <c r="F24" s="10">
-        <v>69.19912</v>
+        <v>69.199119999999994</v>
       </c>
       <c r="G24" s="10">
-        <v>33.581011</v>
+        <v>33.581010999999997</v>
       </c>
       <c r="H24" s="11">
-        <v>1.89128156948747</v>
+        <v>1.8912815694874701</v>
       </c>
       <c r="I24" s="11">
-        <v>1.89128156948747</v>
+        <v>1.8912815694874701</v>
       </c>
       <c r="J24" s="17">
         <v>23</v>
       </c>
       <c r="K24" s="17">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L24" s="15">
         <v>22</v>
       </c>
       <c r="M24" s="16">
-        <v>3.50105935898688</v>
+        <v>3.5010593589868799</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P24" s="10">
         <v>2010</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R24" s="10">
         <v>-0.5</v>
@@ -3713,13 +3099,13 @@
         <v>2700</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W24" s="10">
         <v>1</v>
@@ -3728,48 +3114,48 @@
         <v>3</v>
       </c>
       <c r="Y24" s="10">
-        <v>31433.33333</v>
+        <v>31433.333330000001</v>
       </c>
       <c r="Z24" s="24">
         <v>0.909090909</v>
       </c>
       <c r="AA24" s="24">
-        <v>0.668187772</v>
+        <v>0.66818777200000001</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="C25" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="10">
-        <v>69.199105</v>
+        <v>69.199105000000003</v>
       </c>
       <c r="E25" s="10">
-        <v>33.580978</v>
+        <v>33.580978000000002</v>
       </c>
       <c r="F25" s="10">
-        <v>69.199105</v>
+        <v>69.199105000000003</v>
       </c>
       <c r="G25" s="10">
-        <v>33.580978</v>
+        <v>33.580978000000002</v>
       </c>
       <c r="H25" s="11">
-        <v>1.89242886591059</v>
+        <v>1.8924288659105899</v>
       </c>
       <c r="I25" s="11">
-        <v>1.89242886591059</v>
+        <v>1.8924288659105899</v>
       </c>
       <c r="J25" s="17">
         <v>23</v>
       </c>
       <c r="K25" s="17">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L25" s="15">
         <v>22</v>
@@ -3778,16 +3164,16 @@
         <v>3.49936169934597</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P25" s="10">
         <v>2010</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R25" s="10">
         <v>-1.5</v>
@@ -3796,13 +3182,13 @@
         <v>2700</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W25" s="10">
         <v>1</v>
@@ -3811,42 +3197,42 @@
         <v>3</v>
       </c>
       <c r="Y25" s="10">
-        <v>10266.66667</v>
+        <v>10266.666670000001</v>
       </c>
       <c r="Z25" s="24">
         <v>0.5</v>
       </c>
       <c r="AA25" s="24">
-        <v>0.342989537</v>
+        <v>0.34298953700000001</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="C26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="10">
-        <v>69.193954</v>
+        <v>69.193954000000005</v>
       </c>
       <c r="E26" s="10">
-        <v>33.577591</v>
+        <v>33.577590999999998</v>
       </c>
       <c r="F26" s="10">
-        <v>69.194009</v>
+        <v>69.194008999999994</v>
       </c>
       <c r="G26" s="10">
-        <v>33.577837</v>
+        <v>33.577837000000002</v>
       </c>
       <c r="H26" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="I26" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="J26" s="17">
         <v>23</v>
@@ -3858,19 +3244,19 @@
         <v>22</v>
       </c>
       <c r="M26" s="16">
-        <v>3.26029048800299</v>
+        <v>3.2602904880029899</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P26" s="10">
         <v>2009</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R26" s="10">
         <v>2</v>
@@ -3879,13 +3265,13 @@
         <v>2550</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W26" s="10">
         <v>0</v>
@@ -3905,31 +3291,31 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C27" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10">
-        <v>69.19395</v>
+        <v>69.193950000000001</v>
       </c>
       <c r="E27" s="10">
-        <v>33.577612</v>
+        <v>33.577612000000002</v>
       </c>
       <c r="F27" s="10">
-        <v>69.194009</v>
+        <v>69.194008999999994</v>
       </c>
       <c r="G27" s="10">
-        <v>33.577837</v>
+        <v>33.577837000000002</v>
       </c>
       <c r="H27" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="I27" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="J27" s="17">
         <v>23</v>
@@ -3944,16 +3330,16 @@
         <v>3.26106711970451</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P27" s="10">
         <v>2009</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R27" s="10">
         <v>1.5</v>
@@ -3962,13 +3348,13 @@
         <v>2550</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W27" s="10">
         <v>0</v>
@@ -3980,39 +3366,39 @@
         <v>6800</v>
       </c>
       <c r="Z27" s="24">
-        <v>0.631578947</v>
+        <v>0.63157894699999995</v>
       </c>
       <c r="AA27" s="24">
-        <v>0.446261</v>
+        <v>0.44626100000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="C28" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10">
-        <v>69.193959</v>
+        <v>69.193959000000007</v>
       </c>
       <c r="E28" s="10">
-        <v>33.577644</v>
+        <v>33.577643999999999</v>
       </c>
       <c r="F28" s="10">
-        <v>69.194009</v>
+        <v>69.194008999999994</v>
       </c>
       <c r="G28" s="10">
-        <v>33.577837</v>
+        <v>33.577837000000002</v>
       </c>
       <c r="H28" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="I28" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="J28" s="17">
         <v>23</v>
@@ -4024,19 +3410,19 @@
         <v>22</v>
       </c>
       <c r="M28" s="16">
-        <v>3.26243162385655</v>
+        <v>3.2624316238565498</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P28" s="10">
         <v>2009</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R28" s="10">
         <v>1</v>
@@ -4045,13 +3431,13 @@
         <v>2550</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W28" s="10">
         <v>0</v>
@@ -4063,7 +3449,7 @@
         <v>9566.6</v>
       </c>
       <c r="Z28" s="24">
-        <v>0.542857143</v>
+        <v>0.54285714299999999</v>
       </c>
       <c r="AA28" s="24">
         <v>0.375528476</v>
@@ -4071,37 +3457,37 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="C29" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="10">
-        <v>69.193968</v>
+        <v>69.193967999999998</v>
       </c>
       <c r="E29" s="10">
-        <v>33.577666</v>
+        <v>33.577666000000001</v>
       </c>
       <c r="F29" s="10">
-        <v>69.194009</v>
+        <v>69.194008999999994</v>
       </c>
       <c r="G29" s="10">
-        <v>33.577837</v>
+        <v>33.577837000000002</v>
       </c>
       <c r="H29" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="I29" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="J29" s="17">
         <v>23</v>
       </c>
       <c r="K29" s="17">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L29" s="15">
         <v>22</v>
@@ -4110,16 +3496,16 @@
         <v>3.2634037064374</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P29" s="10">
         <v>2009</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R29" s="10">
         <v>0.5</v>
@@ -4128,13 +3514,13 @@
         <v>2550</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W29" s="10">
         <v>0</v>
@@ -4149,42 +3535,42 @@
         <v>0.4</v>
       </c>
       <c r="AA29" s="24">
-        <v>0.272891784</v>
+        <v>0.27289178400000003</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="C30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="10">
-        <v>69.194009</v>
+        <v>69.194008999999994</v>
       </c>
       <c r="E30" s="10">
-        <v>33.577837</v>
+        <v>33.577837000000002</v>
       </c>
       <c r="F30" s="10">
-        <v>69.194009</v>
+        <v>69.194008999999994</v>
       </c>
       <c r="G30" s="10">
-        <v>33.577837</v>
+        <v>33.577837000000002</v>
       </c>
       <c r="H30" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="I30" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="J30" s="17">
         <v>23</v>
       </c>
       <c r="K30" s="17">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L30" s="15">
         <v>22</v>
@@ -4193,16 +3579,16 @@
         <v>3.27061390974891</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P30" s="10">
         <v>2009</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R30" s="10">
         <v>-0.5</v>
@@ -4211,13 +3597,13 @@
         <v>2550</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W30" s="10">
         <v>1</v>
@@ -4229,63 +3615,63 @@
         <v>38560</v>
       </c>
       <c r="Z30" s="24">
-        <v>0.424242424</v>
+        <v>0.42424242400000001</v>
       </c>
       <c r="AA30" s="24">
-        <v>0.289050497</v>
+        <v>0.28905049700000002</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="C31" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="10">
-        <v>69.19398</v>
+        <v>69.193979999999996</v>
       </c>
       <c r="E31" s="10">
-        <v>33.577746</v>
+        <v>33.577745999999998</v>
       </c>
       <c r="F31" s="10">
-        <v>69.194009</v>
+        <v>69.194008999999994</v>
       </c>
       <c r="G31" s="10">
-        <v>33.577837</v>
+        <v>33.577837000000002</v>
       </c>
       <c r="H31" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="I31" s="11">
-        <v>0.361143829147251</v>
+        <v>0.36114382914725102</v>
       </c>
       <c r="J31" s="17">
         <v>23</v>
       </c>
       <c r="K31" s="17">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="L31" s="15">
         <v>22</v>
       </c>
       <c r="M31" s="16">
-        <v>3.26668954081546</v>
+        <v>3.2666895408154599</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P31" s="10">
         <v>2009</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R31" s="10">
         <v>-1.5</v>
@@ -4294,13 +3680,13 @@
         <v>2550</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V31" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W31" s="10">
         <v>1</v>
@@ -4312,39 +3698,39 @@
         <v>7860</v>
       </c>
       <c r="Z31" s="24">
-        <v>0.463414634</v>
+        <v>0.46341463399999999</v>
       </c>
       <c r="AA31" s="24">
-        <v>0.316320844</v>
+        <v>0.31632084399999999</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="C32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="10">
-        <v>69.18283</v>
+        <v>69.182829999999996</v>
       </c>
       <c r="E32" s="10">
-        <v>33.632512</v>
+        <v>33.632511999999998</v>
       </c>
       <c r="F32" s="10">
-        <v>69.18283</v>
+        <v>69.182829999999996</v>
       </c>
       <c r="G32" s="10">
-        <v>33.632512</v>
+        <v>33.632511999999998</v>
       </c>
       <c r="H32" s="11">
-        <v>0.40636113572051</v>
+        <v>0.40636113572051002</v>
       </c>
       <c r="I32" s="11">
-        <v>0.40636113572051</v>
+        <v>0.40636113572051002</v>
       </c>
       <c r="J32" s="18">
         <v>16.8</v>
@@ -4356,19 +3742,19 @@
         <v>22</v>
       </c>
       <c r="M32" s="16">
-        <v>5.48331310205788</v>
+        <v>5.4833131020578803</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P32" s="10">
         <v>2009</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R32" s="10">
         <v>0.5</v>
@@ -4377,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V32" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W32" s="10">
         <v>0</v>
@@ -4395,42 +3781,42 @@
         <v>292.5</v>
       </c>
       <c r="Z32" s="24">
-        <v>0.689655172</v>
+        <v>0.68965517200000004</v>
       </c>
       <c r="AA32" s="24">
-        <v>0.49396581</v>
+        <v>0.49396581000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="C33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="10">
-        <v>69.188807</v>
+        <v>69.188806999999997</v>
       </c>
       <c r="E33" s="10">
-        <v>33.626809</v>
+        <v>33.626809000000002</v>
       </c>
       <c r="F33" s="10">
-        <v>69.188807</v>
+        <v>69.188806999999997</v>
       </c>
       <c r="G33" s="10">
-        <v>33.626809</v>
+        <v>33.626809000000002</v>
       </c>
       <c r="H33" s="11">
-        <v>0.43095898263699</v>
+        <v>0.43095898263699001</v>
       </c>
       <c r="I33" s="11">
-        <v>0.43095898263699</v>
+        <v>0.43095898263699001</v>
       </c>
       <c r="J33" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K33" s="15">
         <v>16.7</v>
@@ -4439,19 +3825,19 @@
         <v>22</v>
       </c>
       <c r="M33" s="16">
-        <v>5.19032246088706</v>
+        <v>5.1903224608870602</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P33" s="10">
         <v>2010</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R33" s="10">
         <v>2</v>
@@ -4460,13 +3846,13 @@
         <v>800</v>
       </c>
       <c r="T33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V33" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W33" s="10">
         <v>0</v>
@@ -4481,18 +3867,18 @@
         <v>0.787878788</v>
       </c>
       <c r="AA33" s="24">
-        <v>0.574442517</v>
+        <v>0.57444251700000004</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="C34" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="12">
         <v>69.188761</v>
@@ -4507,13 +3893,13 @@
         <v>33.626573</v>
       </c>
       <c r="H34" s="11">
-        <v>0.433593869196281</v>
+        <v>0.43359386919628101</v>
       </c>
       <c r="I34" s="11">
-        <v>0.433593869196281</v>
+        <v>0.43359386919628101</v>
       </c>
       <c r="J34" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K34" s="15">
         <v>13</v>
@@ -4522,19 +3908,19 @@
         <v>22</v>
       </c>
       <c r="M34" s="16">
-        <v>5.18123111438092</v>
+        <v>5.1812311143809202</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P34" s="10">
         <v>2010</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" s="10">
         <v>1.5</v>
@@ -4543,13 +3929,13 @@
         <v>800</v>
       </c>
       <c r="T34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U34" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V34" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W34" s="10">
         <v>0</v>
@@ -4564,30 +3950,30 @@
         <v>0.44</v>
       </c>
       <c r="AA34" s="25">
-        <v>0.299852571</v>
+        <v>0.29985257100000001</v>
       </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="C35" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="12">
-        <v>69.188685</v>
+        <v>69.188685000000007</v>
       </c>
       <c r="E35" s="12">
-        <v>33.626176</v>
+        <v>33.626176000000001</v>
       </c>
       <c r="F35" s="12">
-        <v>69.188685</v>
+        <v>69.188685000000007</v>
       </c>
       <c r="G35" s="12">
-        <v>33.626176</v>
+        <v>33.626176000000001</v>
       </c>
       <c r="H35" s="11">
         <v>0.437973923324811</v>
@@ -4596,7 +3982,7 @@
         <v>0.437973923324811</v>
       </c>
       <c r="J35" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K35" s="15">
         <v>9.6</v>
@@ -4605,19 +3991,19 @@
         <v>22</v>
       </c>
       <c r="M35" s="16">
-        <v>5.16594376224574</v>
+        <v>5.1659437622457398</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P35" s="10">
         <v>2010</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R35" s="10">
         <v>1</v>
@@ -4626,13 +4012,13 @@
         <v>800</v>
       </c>
       <c r="T35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U35" s="10" t="s">
+      <c r="V35" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W35" s="10">
         <v>0</v>
@@ -4652,34 +4038,34 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="C36" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="10">
-        <v>69.18854</v>
+        <v>69.188540000000003</v>
       </c>
       <c r="E36" s="10">
-        <v>33.625522</v>
+        <v>33.625521999999997</v>
       </c>
       <c r="F36" s="10">
-        <v>69.18854</v>
+        <v>69.188540000000003</v>
       </c>
       <c r="G36" s="10">
-        <v>33.625522</v>
+        <v>33.625521999999997</v>
       </c>
       <c r="H36" s="11">
-        <v>0.446559686551688</v>
+        <v>0.44655968655168798</v>
       </c>
       <c r="I36" s="11">
-        <v>0.446559686551688</v>
+        <v>0.44655968655168798</v>
       </c>
       <c r="J36" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K36" s="15">
         <v>6.3</v>
@@ -4688,19 +4074,19 @@
         <v>22</v>
       </c>
       <c r="M36" s="16">
-        <v>5.14090337994719</v>
+        <v>5.1409033799471899</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P36" s="10">
         <v>2010</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R36" s="10">
         <v>0.5</v>
@@ -4709,13 +4095,13 @@
         <v>800</v>
       </c>
       <c r="T36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U36" s="10" t="s">
+      <c r="V36" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W36" s="10">
         <v>0</v>
@@ -4735,34 +4121,34 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="C37" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="10">
-        <v>69.188406</v>
+        <v>69.188406000000001</v>
       </c>
       <c r="E37" s="10">
-        <v>33.624835</v>
+        <v>33.624834999999997</v>
       </c>
       <c r="F37" s="10">
-        <v>69.188406</v>
+        <v>69.188406000000001</v>
       </c>
       <c r="G37" s="10">
-        <v>33.624835</v>
+        <v>33.624834999999997</v>
       </c>
       <c r="H37" s="11">
-        <v>0.468998778068117</v>
+        <v>0.46899877806811702</v>
       </c>
       <c r="I37" s="11">
-        <v>0.468998778068117</v>
+        <v>0.46899877806811702</v>
       </c>
       <c r="J37" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K37" s="15">
         <v>6.3</v>
@@ -4771,19 +4157,19 @@
         <v>22</v>
       </c>
       <c r="M37" s="16">
-        <v>5.11455515563588</v>
+        <v>5.1145551556358804</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P37" s="10">
         <v>2010</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R37" s="10">
         <v>-0.5</v>
@@ -4792,13 +4178,13 @@
         <v>800</v>
       </c>
       <c r="T37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U37" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V37" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W37" s="10">
         <v>0</v>
@@ -4818,34 +4204,34 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="C38" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="10">
-        <v>69.188364</v>
+        <v>69.188364000000007</v>
       </c>
       <c r="E38" s="10">
-        <v>33.624524</v>
+        <v>33.624524000000001</v>
       </c>
       <c r="F38" s="10">
-        <v>69.188364</v>
+        <v>69.188364000000007</v>
       </c>
       <c r="G38" s="10">
-        <v>33.624524</v>
+        <v>33.624524000000001</v>
       </c>
       <c r="H38" s="11">
-        <v>0.473312284333688</v>
+        <v>0.47331228433368799</v>
       </c>
       <c r="I38" s="11">
-        <v>0.473312284333688</v>
+        <v>0.47331228433368799</v>
       </c>
       <c r="J38" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K38" s="15">
         <v>6.3</v>
@@ -4854,19 +4240,19 @@
         <v>22</v>
       </c>
       <c r="M38" s="16">
-        <v>5.1025330323121</v>
+        <v>5.1025330323120999</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P38" s="10">
         <v>2010</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R38" s="10">
         <v>-1.5</v>
@@ -4875,13 +4261,13 @@
         <v>800</v>
       </c>
       <c r="T38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U38" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V38" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W38" s="10">
         <v>0</v>
@@ -4901,34 +4287,34 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="C39" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="10">
-        <v>69.188307</v>
+        <v>69.188306999999995</v>
       </c>
       <c r="E39" s="10">
         <v>33.624181</v>
       </c>
       <c r="F39" s="10">
-        <v>69.188307</v>
+        <v>69.188306999999995</v>
       </c>
       <c r="G39" s="10">
         <v>33.624181</v>
       </c>
       <c r="H39" s="11">
-        <v>0.478411298429854</v>
+        <v>0.47841129842985403</v>
       </c>
       <c r="I39" s="11">
-        <v>0.478411298429854</v>
+        <v>0.47841129842985403</v>
       </c>
       <c r="J39" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K39" s="15">
         <v>6.3</v>
@@ -4937,19 +4323,19 @@
         <v>22</v>
       </c>
       <c r="M39" s="16">
-        <v>5.08934528436013</v>
+        <v>5.0893452843601299</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P39" s="10">
         <v>2010</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R39" s="10">
         <v>-3.5</v>
@@ -4958,13 +4344,13 @@
         <v>800</v>
       </c>
       <c r="T39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U39" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V39" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W39" s="10">
         <v>0</v>
@@ -4976,7 +4362,7 @@
         <v>3266.67</v>
       </c>
       <c r="Z39" s="24">
-        <v>0.045454545</v>
+        <v>4.5454544999999999E-2</v>
       </c>
       <c r="AA39" s="24">
         <v>0.104331223</v>
@@ -4984,34 +4370,34 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="C40" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" s="10">
-        <v>69.186283</v>
+        <v>69.186283000000003</v>
       </c>
       <c r="E40" s="10">
-        <v>33.612829</v>
+        <v>33.612828999999998</v>
       </c>
       <c r="F40" s="10">
-        <v>69.186283</v>
+        <v>69.186283000000003</v>
       </c>
       <c r="G40" s="10">
-        <v>33.612829</v>
+        <v>33.612828999999998</v>
       </c>
       <c r="H40" s="11">
-        <v>0.52820417260623</v>
+        <v>0.52820417260622998</v>
       </c>
       <c r="I40" s="11">
-        <v>0.52820417260623</v>
+        <v>0.52820417260622998</v>
       </c>
       <c r="J40" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K40" s="15">
         <v>12.3</v>
@@ -5020,19 +4406,19 @@
         <v>22</v>
       </c>
       <c r="M40" s="16">
-        <v>4.66050850681044</v>
+        <v>4.6605085068104399</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P40" s="10">
         <v>2010</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R40" s="10">
         <v>1.5</v>
@@ -5041,13 +4427,13 @@
         <v>650</v>
       </c>
       <c r="T40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U40" s="10" t="s">
+      <c r="V40" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V40" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W40" s="10">
         <v>0</v>
@@ -5062,42 +4448,42 @@
         <v>0.84</v>
       </c>
       <c r="AA40" s="25">
-        <v>0.61585702</v>
+        <v>0.61585701999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="C41" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41" s="10">
-        <v>69.186649</v>
+        <v>69.186649000000003</v>
       </c>
       <c r="E41" s="10">
-        <v>33.615276</v>
+        <v>33.615276000000001</v>
       </c>
       <c r="F41" s="10">
-        <v>69.186649</v>
+        <v>69.186649000000003</v>
       </c>
       <c r="G41" s="10">
-        <v>33.615276</v>
+        <v>33.615276000000001</v>
       </c>
       <c r="H41" s="11">
-        <v>0.526613022433974</v>
+        <v>0.52661302243397401</v>
       </c>
       <c r="I41" s="11">
-        <v>0.526613022433974</v>
+        <v>0.52661302243397401</v>
       </c>
       <c r="J41" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K41" s="15">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L41" s="15">
         <v>22</v>
@@ -5106,16 +4492,16 @@
         <v>4.75250151352272</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P41" s="10">
         <v>2010</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R41" s="10">
         <v>1</v>
@@ -5124,13 +4510,13 @@
         <v>650</v>
       </c>
       <c r="T41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U41" s="10" t="s">
+      <c r="V41" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V41" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W41" s="10">
         <v>0</v>
@@ -5145,39 +4531,39 @@
         <v>0.84</v>
       </c>
       <c r="AA41" s="25">
-        <v>0.61585702</v>
+        <v>0.61585701999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="C42" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="10">
-        <v>69.187367</v>
+        <v>69.187366999999995</v>
       </c>
       <c r="E42" s="10">
-        <v>33.619159</v>
+        <v>33.619159000000003</v>
       </c>
       <c r="F42" s="10">
-        <v>69.187367</v>
+        <v>69.187366999999995</v>
       </c>
       <c r="G42" s="10">
-        <v>33.619159</v>
+        <v>33.619159000000003</v>
       </c>
       <c r="H42" s="11">
-        <v>0.553115855281673</v>
+        <v>0.55311585528167295</v>
       </c>
       <c r="I42" s="11">
-        <v>0.553115855281673</v>
+        <v>0.55311585528167295</v>
       </c>
       <c r="J42" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K42" s="15">
         <v>5.3</v>
@@ -5186,19 +4572,19 @@
         <v>22</v>
       </c>
       <c r="M42" s="16">
-        <v>4.89831947382201</v>
+        <v>4.8983194738220099</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P42" s="10">
         <v>2010</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R42" s="10">
         <v>0.5</v>
@@ -5207,13 +4593,13 @@
         <v>650</v>
       </c>
       <c r="T42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="10" t="s">
+      <c r="V42" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="W42" s="10">
         <v>0</v>
@@ -5233,34 +4619,34 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="C43" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="10">
-        <v>69.187687</v>
+        <v>69.187686999999997</v>
       </c>
       <c r="E43" s="10">
-        <v>33.620297</v>
+        <v>33.620297000000001</v>
       </c>
       <c r="F43" s="10">
-        <v>69.187687</v>
+        <v>69.187686999999997</v>
       </c>
       <c r="G43" s="10">
-        <v>33.620297</v>
+        <v>33.620297000000001</v>
       </c>
       <c r="H43" s="11">
-        <v>0.544224728308571</v>
+        <v>0.54422472830857105</v>
       </c>
       <c r="I43" s="11">
-        <v>0.544224728308571</v>
+        <v>0.54422472830857105</v>
       </c>
       <c r="J43" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K43" s="15">
         <v>5.3</v>
@@ -5269,19 +4655,19 @@
         <v>22</v>
       </c>
       <c r="M43" s="16">
-        <v>4.94051150965134</v>
+        <v>4.9405115096513397</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P43" s="10">
         <v>2010</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R43" s="10">
         <v>-0.5</v>
@@ -5290,13 +4676,13 @@
         <v>650</v>
       </c>
       <c r="T43" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U43" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U43" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V43" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W43" s="10">
         <v>0</v>
@@ -5316,25 +4702,25 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="C44" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="10">
-        <v>69.187825</v>
+        <v>69.187825000000004</v>
       </c>
       <c r="E44" s="10">
-        <v>33.620919</v>
+        <v>33.620919000000001</v>
       </c>
       <c r="F44" s="10">
-        <v>69.187825</v>
+        <v>69.187825000000004</v>
       </c>
       <c r="G44" s="10">
-        <v>33.620919</v>
+        <v>33.620919000000001</v>
       </c>
       <c r="H44" s="11">
         <v>0.53657248085969</v>
@@ -5343,7 +4729,7 @@
         <v>0.53657248085969</v>
       </c>
       <c r="J44" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K44" s="15">
         <v>5.3</v>
@@ -5355,16 +4741,16 @@
         <v>4.96397351232135</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P44" s="10">
         <v>2010</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R44" s="10">
         <v>-1.5</v>
@@ -5373,13 +4759,13 @@
         <v>650</v>
       </c>
       <c r="T44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U44" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="V44" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W44" s="10">
         <v>0</v>
@@ -5388,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="10">
-        <v>133.3</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="Z44" s="25">
         <v>0.17</v>
@@ -5399,34 +4785,34 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="10">
-        <v>69.185351</v>
+        <v>69.185350999999997</v>
       </c>
       <c r="E45" s="10">
-        <v>33.625488</v>
+        <v>33.625487999999997</v>
       </c>
       <c r="F45" s="10">
-        <v>69.185351</v>
+        <v>69.185350999999997</v>
       </c>
       <c r="G45" s="10">
-        <v>33.625488</v>
+        <v>33.625487999999997</v>
       </c>
       <c r="H45" s="11">
-        <v>0.432087949216916</v>
+        <v>0.43208794921691601</v>
       </c>
       <c r="I45" s="11">
-        <v>0.432087949216916</v>
+        <v>0.43208794921691601</v>
       </c>
       <c r="J45" s="15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K45" s="15">
         <v>3.7</v>
@@ -5435,19 +4821,19 @@
         <v>22</v>
       </c>
       <c r="M45" s="16">
-        <v>5.16919266460931</v>
+        <v>5.1691926646093096</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P45" s="10">
         <v>2010</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R45" s="10">
         <v>0.5</v>
@@ -5456,16 +4842,16 @@
         <v>420</v>
       </c>
       <c r="T45" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X45" s="10">
         <v>3</v>
@@ -5474,50 +4860,44 @@
         <v>3610</v>
       </c>
       <c r="Z45" s="24">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA45" s="24">
         <v>0.11214657</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AA45" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AA45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5525,22 +4905,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
       <c r="D2" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E2" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F2">
-        <v>0.547463655488478</v>
+        <v>0.54746365548847797</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5548,22 +4928,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
       <c r="D3" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E3" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F3">
-        <v>0.546352425511874</v>
+        <v>0.54635242551187402</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5571,22 +4951,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
       <c r="D4" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E4" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F4">
-        <v>0.543979141533625</v>
+        <v>0.54397914153362503</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5594,22 +4974,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
       <c r="D5" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E5" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F5">
-        <v>0.537686005284502</v>
+        <v>0.53768600528450206</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5617,22 +4997,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
         <v>138</v>
       </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
       <c r="D6" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E6" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F6">
-        <v>0.53150916847992</v>
+        <v>0.53150916847992002</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5640,22 +5020,22 @@
         <v>44932</v>
       </c>
       <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
       <c r="D7" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E7" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F7">
         <v>0.908977562927479</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5663,22 +5043,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
         <v>138</v>
       </c>
-      <c r="C8" t="s">
-        <v>139</v>
-      </c>
       <c r="D8" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E8" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F8">
-        <v>0.582326718193306</v>
+        <v>0.58232671819330595</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5686,22 +5066,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
         <v>138</v>
       </c>
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
       <c r="D9" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E9" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F9">
-        <v>0.533248653327106</v>
+        <v>0.53324865332710603</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5709,22 +5089,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" t="s">
-        <v>139</v>
-      </c>
       <c r="D10" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E10" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F10">
-        <v>0.528530434302476</v>
+        <v>0.52853043430247604</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5732,22 +5112,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
       <c r="D11" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E11" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F11">
-        <v>0.536812186062027</v>
+        <v>0.53681218606202696</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5755,22 +5135,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
       <c r="D12" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E12" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F12">
-        <v>0.527412276880499</v>
+        <v>0.52741227688049896</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5778,22 +5158,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
         <v>138</v>
       </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
       <c r="D13" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E13" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F13" s="2">
-        <v>1.01139482757429</v>
+        <v>1.0113948275742899</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5801,22 +5181,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
         <v>138</v>
       </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
       <c r="D14" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E14" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F14" s="2">
         <v>1.01215707802803</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5824,22 +5204,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
-        <v>139</v>
-      </c>
       <c r="D15" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E15" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>1.01232859898621</v>
+        <v>1.0123285989862101</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5847,22 +5227,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
         <v>138</v>
       </c>
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
       <c r="D16" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E16" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F16" s="2">
-        <v>1.01281463679264</v>
+        <v>1.0128146367926401</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -5870,22 +5250,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
         <v>138</v>
       </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
       <c r="D17" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E17" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F17" s="2">
         <v>1.0062947781684</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5893,22 +5273,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
         <v>138</v>
       </c>
-      <c r="C18" t="s">
-        <v>139</v>
-      </c>
       <c r="D18" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E18" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F18" s="2">
         <v>1.0049708150495</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5916,22 +5296,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
-        <v>139</v>
-      </c>
       <c r="D19" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E19" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F19" s="2">
-        <v>1.00751676371237</v>
+        <v>1.0075167637123701</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5939,22 +5319,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
         <v>138</v>
       </c>
-      <c r="C20" t="s">
-        <v>139</v>
-      </c>
       <c r="D20" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E20" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F20" s="2">
         <v>1.94381499177705</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5962,22 +5342,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
         <v>138</v>
       </c>
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
       <c r="D21" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E21" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F21" s="2">
         <v>1.94347922356947</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5985,22 +5365,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
-        <v>139</v>
-      </c>
       <c r="D22" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E22" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F22" s="2">
-        <v>1.94244778454608</v>
+        <v>1.9424477845460799</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6008,22 +5388,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
         <v>138</v>
       </c>
-      <c r="C23" t="s">
-        <v>139</v>
-      </c>
       <c r="D23" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E23" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F23" s="2">
-        <v>1.94055726701817</v>
+        <v>1.9405572670181701</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6031,22 +5411,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
       <c r="D24" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E24" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F24" s="2">
         <v>1.94121842309002</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6054,22 +5434,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="C25" t="s">
-        <v>139</v>
-      </c>
       <c r="D25" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E25" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F25" s="2">
         <v>1.94146264049796</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6077,22 +5457,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="C26" t="s">
-        <v>139</v>
-      </c>
       <c r="D26" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E26" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F26" s="2">
         <v>1.84446569273454</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6100,22 +5480,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
       <c r="D27" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E27" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F27" s="2">
-        <v>1.84355450482999</v>
+        <v>1.8435545048299899</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6123,22 +5503,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
       <c r="D28" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E28" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F28" s="2">
-        <v>1.84256396491502</v>
+        <v>1.8425639649150201</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6146,22 +5526,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
         <v>138</v>
       </c>
-      <c r="C29" t="s">
-        <v>139</v>
-      </c>
       <c r="D29" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E29" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F29" s="2">
-        <v>1.84195791660172</v>
+        <v>1.8419579166017199</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6169,22 +5549,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="C30" t="s">
-        <v>139</v>
-      </c>
       <c r="D30" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E30" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F30" s="2">
         <v>1.83649355438113</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6192,22 +5572,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
         <v>138</v>
       </c>
-      <c r="C31" t="s">
-        <v>139</v>
-      </c>
       <c r="D31" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E31" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F31" s="2">
         <v>1.83920786105056</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6215,22 +5595,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>139</v>
-      </c>
       <c r="D32" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E32" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F32">
-        <v>0.884027957949135</v>
+        <v>0.88402795794913502</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6238,22 +5618,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
-        <v>139</v>
-      </c>
       <c r="D33" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E33" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F33">
-        <v>0.203346311288183</v>
+        <v>0.20334631128818301</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6261,22 +5641,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
         <v>138</v>
       </c>
-      <c r="C34" t="s">
-        <v>139</v>
-      </c>
       <c r="D34" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E34" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F34">
         <v>0.199997964055494</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6284,22 +5664,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="C35" t="s">
-        <v>139</v>
-      </c>
       <c r="D35" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E35" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F35">
         <v>0.195427648681471</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6307,22 +5687,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
       <c r="D36" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E36" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F36">
-        <v>0.193178239098668</v>
+        <v>0.19317823909866799</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6330,22 +5710,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
         <v>138</v>
       </c>
-      <c r="C37" t="s">
-        <v>139</v>
-      </c>
       <c r="D37" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E37" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F37">
-        <v>0.194069461265742</v>
+        <v>0.19406946126574201</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6353,22 +5733,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
         <v>138</v>
       </c>
-      <c r="C38" t="s">
-        <v>139</v>
-      </c>
       <c r="D38" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E38" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F38">
         <v>0.194118566034576</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6376,22 +5756,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
         <v>138</v>
       </c>
-      <c r="C39" t="s">
-        <v>139</v>
-      </c>
       <c r="D39" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E39" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F39">
-        <v>0.196352062988929</v>
+        <v>0.19635206298892899</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6399,22 +5779,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="C40" t="s">
-        <v>139</v>
-      </c>
       <c r="D40" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E40" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F40">
-        <v>0.57657019448268</v>
+        <v>0.57657019448267999</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6422,22 +5802,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
       <c r="D41" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E41" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F41">
-        <v>0.481977345245402</v>
+        <v>0.48197734524540198</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6445,22 +5825,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
         <v>138</v>
       </c>
-      <c r="C42" t="s">
-        <v>139</v>
-      </c>
       <c r="D42" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E42" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F42">
-        <v>0.330678844683175</v>
+        <v>0.33067884468317499</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6468,22 +5848,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="C43" t="s">
-        <v>139</v>
-      </c>
       <c r="D43" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E43" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F43">
-        <v>0.279614027584664</v>
+        <v>0.27961402758466403</v>
       </c>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6491,22 +5871,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="C44" t="s">
-        <v>139</v>
-      </c>
       <c r="D44" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E44" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F44">
-        <v>0.256736694717309</v>
+        <v>0.25673669471730898</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6514,63 +5894,61 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="C45" t="s">
-        <v>139</v>
-      </c>
       <c r="D45" s="2">
-        <v>69.190018</v>
+        <v>69.190017999999995</v>
       </c>
       <c r="E45" s="2">
-        <v>33.622952</v>
+        <v>33.622951999999998</v>
       </c>
       <c r="F45">
-        <v>0.528530434302476</v>
+        <v>0.52853043430247604</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11.7777777777778"/>
-    <col min="5" max="6" width="12.8888888888889"/>
+    <col min="4" max="4" width="11.7109375"/>
+    <col min="5" max="6" width="12.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6578,22 +5956,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E2">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F2">
-        <v>5.37745584439991</v>
+        <v>5.3774558443999103</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6601,22 +5979,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E3">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F3">
-        <v>5.36964507578786</v>
+        <v>5.3696450757878598</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6624,22 +6002,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E4">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F4">
-        <v>5.35895326900239</v>
+        <v>5.3589532690023898</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6647,22 +6025,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E5">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F5">
-        <v>5.33121969203691</v>
+        <v>5.3312196920369104</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6670,22 +6048,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E6">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F6">
-        <v>5.31412994952893</v>
+        <v>5.3141299495289296</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6693,22 +6071,22 @@
         <v>45297</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E7">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F7">
-        <v>5.27120118652315</v>
+        <v>5.2712011865231503</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6716,22 +6094,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E8">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F8">
-        <v>5.00959643191706</v>
+        <v>5.0095964319170596</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6739,22 +6117,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E9">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F9">
-        <v>5.13963715175461</v>
+        <v>5.1396371517546102</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6762,22 +6140,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E10">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F10">
-        <v>5.16919266460931</v>
+        <v>5.1691926646093096</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6785,22 +6163,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E11">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F11">
-        <v>5.27469094833891</v>
+        <v>5.2746909483389102</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6808,22 +6186,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E12">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F12">
         <v>5.28578867715638</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6831,22 +6209,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E13">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F13">
-        <v>4.25756931539784</v>
+        <v>4.2575693153978396</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6854,22 +6232,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E14">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F14">
-        <v>4.25507820064882</v>
+        <v>4.2550782006488204</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6877,22 +6255,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E15">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F15">
-        <v>4.25342435031775</v>
+        <v>4.2534243503177498</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6900,22 +6278,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E16">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F16">
-        <v>4.25580546683216</v>
+        <v>4.2558054668321601</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6923,22 +6301,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E17">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F17">
         <v>4.25146994312305</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6946,22 +6324,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E18">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F18">
-        <v>4.2432548828041</v>
+        <v>4.2432548828041003</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6969,22 +6347,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E19">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F19">
-        <v>4.23942471505859</v>
+        <v>4.2394247150585898</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6992,22 +6370,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E20">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F20">
         <v>3.50469523927603</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -7015,22 +6393,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E21">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F21">
-        <v>3.50364216855666</v>
+        <v>3.5036421685566599</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -7038,22 +6416,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E22">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F22">
-        <v>3.50223546121422</v>
+        <v>3.5022354612142199</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -7061,22 +6439,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E23">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F23">
         <v>3.50304127641457</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -7084,22 +6462,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E24">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F24">
-        <v>3.50105935898688</v>
+        <v>3.5010593589868799</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -7107,22 +6485,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E25">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F25">
         <v>3.49936169934597</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7130,22 +6508,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E26">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F26">
-        <v>3.26029048800299</v>
+        <v>3.2602904880029899</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -7153,22 +6531,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E27">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F27">
         <v>3.26106711970451</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -7176,22 +6554,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E28">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F28">
-        <v>3.26243162385655</v>
+        <v>3.2624316238565498</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -7199,22 +6577,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E29">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F29">
         <v>3.2634037064374</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -7222,22 +6600,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E30">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F30">
         <v>3.27061390974891</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -7245,22 +6623,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E31">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F31">
-        <v>3.26668954081546</v>
+        <v>3.2666895408154599</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -7268,22 +6646,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D32">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E32">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F32">
-        <v>5.48331310205788</v>
+        <v>5.4833131020578803</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -7291,22 +6669,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E33">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F33">
-        <v>5.19032246088706</v>
+        <v>5.1903224608870602</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -7314,22 +6692,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E34">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F34">
-        <v>5.18123111438092</v>
+        <v>5.1812311143809202</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7337,22 +6715,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E35">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F35">
-        <v>5.16594376224574</v>
+        <v>5.1659437622457398</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -7360,22 +6738,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E36">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F36">
-        <v>5.14090337994719</v>
+        <v>5.1409033799471899</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -7383,22 +6761,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E37">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F37">
-        <v>5.11455515563588</v>
+        <v>5.1145551556358804</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7406,22 +6784,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E38">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F38">
-        <v>5.1025330323121</v>
+        <v>5.1025330323120999</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7429,22 +6807,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E39">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F39">
-        <v>5.08934528436013</v>
+        <v>5.0893452843601299</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7452,22 +6830,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E40">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F40">
-        <v>4.66050850681044</v>
+        <v>4.6605085068104399</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7475,22 +6853,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E41">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F41">
         <v>4.75250151352272</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7498,22 +6876,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E42">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F42">
-        <v>4.89831947382201</v>
+        <v>4.8983194738220099</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7521,22 +6899,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E43">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F43">
-        <v>4.94051150965134</v>
+        <v>4.9405115096513397</v>
       </c>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7544,22 +6922,22 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E44">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F44">
         <v>4.96397351232135</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7567,26 +6945,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45">
-        <v>69.19077</v>
+        <v>69.190770000000001</v>
       </c>
       <c r="E45">
-        <v>33.49554</v>
+        <v>33.495539999999998</v>
       </c>
       <c r="F45">
-        <v>5.16919266460931</v>
+        <v>5.1691926646093096</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>